--- a/files/28_11_2022/route_number_1.xlsx
+++ b/files/28_11_2022/route_number_1.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1510 +435,872 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>676369</v>
+        <v>683721</v>
       </c>
       <c r="B2">
-        <v>653690</v>
+        <v>608983</v>
       </c>
       <c r="C2">
-        <v>37.5836282</v>
+        <v>38.21049037</v>
       </c>
       <c r="D2">
-        <v>55.81448417</v>
+        <v>55.71580471</v>
       </c>
       <c r="E2">
-        <v>37.58645122</v>
+        <v>38.18465608</v>
       </c>
       <c r="F2">
-        <v>55.82075053</v>
+        <v>55.80678497</v>
       </c>
       <c r="G2">
-        <v>12.13</v>
+        <v>31.82</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2.129999999999999</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>653690</v>
+        <v>608983</v>
       </c>
       <c r="B3">
-        <v>686171</v>
+        <v>608012</v>
       </c>
       <c r="C3">
-        <v>37.58645122</v>
+        <v>38.18465608</v>
       </c>
       <c r="D3">
-        <v>55.82075053</v>
+        <v>55.80678497</v>
       </c>
       <c r="E3">
-        <v>37.58579219</v>
+        <v>38.19305602</v>
       </c>
       <c r="F3">
-        <v>55.80610115</v>
+        <v>55.87058306</v>
       </c>
       <c r="G3">
-        <v>13.76</v>
+        <v>25.38</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>3.76</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>686171</v>
+        <v>608012</v>
       </c>
       <c r="B4">
-        <v>688242</v>
+        <v>634861</v>
       </c>
       <c r="C4">
-        <v>37.58579219</v>
+        <v>38.19305602</v>
       </c>
       <c r="D4">
-        <v>55.80610115</v>
+        <v>55.87058306</v>
       </c>
       <c r="E4">
-        <v>37.60828189</v>
+        <v>37.9902959</v>
       </c>
       <c r="F4">
-        <v>55.79859296</v>
+        <v>55.92120302</v>
       </c>
       <c r="G4">
-        <v>13.28</v>
+        <v>34.4</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>3.279999999999999</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>688242</v>
+        <v>634861</v>
       </c>
       <c r="B5">
-        <v>688345</v>
+        <v>677529</v>
       </c>
       <c r="C5">
-        <v>37.60828189</v>
+        <v>37.9902959</v>
       </c>
       <c r="D5">
-        <v>55.79859296</v>
+        <v>55.92120302</v>
       </c>
       <c r="E5">
-        <v>37.5808077</v>
+        <v>37.87227757</v>
       </c>
       <c r="F5">
-        <v>55.79305018</v>
+        <v>56.00199436</v>
       </c>
       <c r="G5">
-        <v>13.14</v>
+        <v>36.13</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>3.140000000000001</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>688345</v>
+        <v>677529</v>
       </c>
       <c r="B6">
-        <v>637503</v>
+        <v>638717</v>
       </c>
       <c r="C6">
-        <v>37.5808077</v>
+        <v>37.87227757</v>
       </c>
       <c r="D6">
-        <v>55.79305018</v>
+        <v>56.00199436</v>
       </c>
       <c r="E6">
-        <v>37.57683623</v>
+        <v>37.85973864</v>
       </c>
       <c r="F6">
-        <v>55.79449804</v>
+        <v>56.00982079</v>
       </c>
       <c r="G6">
-        <v>11.27</v>
+        <v>14.05</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.27</v>
+        <v>4.050000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>637503</v>
+        <v>638717</v>
       </c>
       <c r="B7">
-        <v>627777</v>
+        <v>406593</v>
       </c>
       <c r="C7">
-        <v>37.57683623</v>
+        <v>37.85973864</v>
       </c>
       <c r="D7">
-        <v>55.79449804</v>
+        <v>56.00982079</v>
       </c>
       <c r="E7">
-        <v>37.56558843</v>
+        <v>37.66817728</v>
       </c>
       <c r="F7">
-        <v>55.79380347</v>
+        <v>55.87560213</v>
       </c>
       <c r="G7">
-        <v>12.34</v>
+        <v>36.38</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>627777</v>
+        <v>406593</v>
       </c>
       <c r="B8">
-        <v>608080</v>
+        <v>605329</v>
       </c>
       <c r="C8">
-        <v>37.56558843</v>
+        <v>37.66817728</v>
       </c>
       <c r="D8">
-        <v>55.79380347</v>
+        <v>55.87560213</v>
       </c>
       <c r="E8">
-        <v>37.56917974</v>
+        <v>37.53864327</v>
       </c>
       <c r="F8">
-        <v>55.8108622</v>
+        <v>55.95594488</v>
       </c>
       <c r="G8">
-        <v>13.96</v>
+        <v>27.62</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>3.960000000000001</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>608080</v>
+        <v>605329</v>
       </c>
       <c r="B9">
-        <v>688214</v>
+        <v>608061</v>
       </c>
       <c r="C9">
-        <v>37.56917974</v>
+        <v>37.53864327</v>
       </c>
       <c r="D9">
-        <v>55.8108622</v>
+        <v>55.95594488</v>
       </c>
       <c r="E9">
-        <v>37.55592693</v>
+        <v>37.50404564</v>
       </c>
       <c r="F9">
-        <v>55.81144031</v>
+        <v>55.94853201</v>
       </c>
       <c r="G9">
-        <v>11.86</v>
+        <v>17.01</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>1.859999999999999</v>
+        <v>7.009999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>688214</v>
+        <v>608061</v>
       </c>
       <c r="B10">
-        <v>698672</v>
+        <v>608039</v>
       </c>
       <c r="C10">
-        <v>37.55592693</v>
+        <v>37.50404564</v>
       </c>
       <c r="D10">
-        <v>55.81144031</v>
+        <v>55.94853201</v>
       </c>
       <c r="E10">
-        <v>37.58628664</v>
+        <v>37.49695937</v>
       </c>
       <c r="F10">
-        <v>55.79807363</v>
+        <v>55.94811156</v>
       </c>
       <c r="G10">
-        <v>14.93</v>
+        <v>12.6</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>4.93</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>698672</v>
+        <v>608039</v>
       </c>
       <c r="B11">
-        <v>661919</v>
+        <v>635211</v>
       </c>
       <c r="C11">
-        <v>37.58628664</v>
+        <v>37.49695937</v>
       </c>
       <c r="D11">
-        <v>55.79807363</v>
+        <v>55.94811156</v>
       </c>
       <c r="E11">
-        <v>37.54047992</v>
+        <v>37.51001948</v>
       </c>
       <c r="F11">
-        <v>55.77502355</v>
+        <v>55.93785005</v>
       </c>
       <c r="G11">
-        <v>16.71</v>
+        <v>13.27</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>6.710000000000001</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>661919</v>
+        <v>635211</v>
       </c>
       <c r="B12">
-        <v>683103</v>
+        <v>682267</v>
       </c>
       <c r="C12">
-        <v>37.54047992</v>
+        <v>37.51001948</v>
       </c>
       <c r="D12">
-        <v>55.77502355</v>
+        <v>55.93785005</v>
       </c>
       <c r="E12">
-        <v>37.53281992</v>
+        <v>37.4156507</v>
       </c>
       <c r="F12">
-        <v>55.77528195</v>
+        <v>55.88720293</v>
       </c>
       <c r="G12">
-        <v>12.03</v>
+        <v>23.51</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>2.029999999999999</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>683103</v>
+        <v>682267</v>
       </c>
       <c r="B13">
-        <v>683128</v>
+        <v>607752</v>
       </c>
       <c r="C13">
-        <v>37.53281992</v>
+        <v>37.4156507</v>
       </c>
       <c r="D13">
-        <v>55.77528195</v>
+        <v>55.88720293</v>
       </c>
       <c r="E13">
-        <v>37.49277681</v>
+        <v>37.41223949</v>
       </c>
       <c r="F13">
-        <v>55.77537392</v>
+        <v>55.89485068</v>
       </c>
       <c r="G13">
-        <v>15.14</v>
+        <v>12.96</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>5.140000000000001</v>
+        <v>2.960000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>683128</v>
+        <v>607752</v>
       </c>
       <c r="B14">
-        <v>683789</v>
+        <v>676341</v>
       </c>
       <c r="C14">
-        <v>37.49277681</v>
+        <v>37.41223949</v>
       </c>
       <c r="D14">
-        <v>55.77537392</v>
+        <v>55.89485068</v>
       </c>
       <c r="E14">
-        <v>37.4621368</v>
+        <v>37.37155695</v>
       </c>
       <c r="F14">
-        <v>55.77661336</v>
+        <v>55.92034023</v>
       </c>
       <c r="G14">
-        <v>14.33</v>
+        <v>18.47</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>4.33</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>683789</v>
+        <v>676341</v>
       </c>
       <c r="B15">
-        <v>689149</v>
+        <v>636538</v>
       </c>
       <c r="C15">
-        <v>37.4621368</v>
+        <v>37.37155695</v>
       </c>
       <c r="D15">
-        <v>55.77661336</v>
+        <v>55.92034023</v>
       </c>
       <c r="E15">
-        <v>37.49547905</v>
+        <v>37.46917927</v>
       </c>
       <c r="F15">
-        <v>55.79283119</v>
+        <v>55.86447345</v>
       </c>
       <c r="G15">
-        <v>15.07</v>
+        <v>21.9</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>5.07</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>689149</v>
+        <v>636538</v>
       </c>
       <c r="B16">
-        <v>682752</v>
+        <v>623319</v>
       </c>
       <c r="C16">
-        <v>37.49547905</v>
+        <v>37.46917927</v>
       </c>
       <c r="D16">
-        <v>55.79283119</v>
+        <v>55.86447345</v>
       </c>
       <c r="E16">
-        <v>37.51681669</v>
+        <v>37.49819881</v>
       </c>
       <c r="F16">
-        <v>55.79486335</v>
+        <v>55.82068137</v>
       </c>
       <c r="G16">
-        <v>13.8</v>
+        <v>19.27</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>3.800000000000001</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>682752</v>
+        <v>623319</v>
       </c>
       <c r="B17">
-        <v>686118</v>
+        <v>606062</v>
       </c>
       <c r="C17">
-        <v>37.51681669</v>
+        <v>37.49819881</v>
       </c>
       <c r="D17">
-        <v>55.79486335</v>
+        <v>55.82068137</v>
       </c>
       <c r="E17">
-        <v>37.53748862</v>
+        <v>37.55002755</v>
       </c>
       <c r="F17">
-        <v>55.78853038</v>
+        <v>55.84516359</v>
       </c>
       <c r="G17">
-        <v>14.15</v>
+        <v>18.19</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>4.15</v>
+        <v>8.189999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
+        <v>606062</v>
+      </c>
+      <c r="B18">
         <v>686118</v>
       </c>
-      <c r="B18">
-        <v>634025</v>
-      </c>
       <c r="C18">
+        <v>37.55002755</v>
+      </c>
+      <c r="D18">
+        <v>55.84516359</v>
+      </c>
+      <c r="E18">
         <v>37.53748862</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>55.78853038</v>
       </c>
-      <c r="E18">
-        <v>37.53536887</v>
-      </c>
-      <c r="F18">
-        <v>55.79970286</v>
-      </c>
       <c r="G18">
-        <v>17.99</v>
+        <v>23.71</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>7.990000000000002</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>634025</v>
+        <v>686118</v>
       </c>
       <c r="B19">
-        <v>698710</v>
+        <v>637536</v>
       </c>
       <c r="C19">
-        <v>37.53536887</v>
+        <v>37.53748862</v>
       </c>
       <c r="D19">
-        <v>55.79970286</v>
+        <v>55.78853038</v>
       </c>
       <c r="E19">
-        <v>37.51134651</v>
+        <v>37.5843158</v>
       </c>
       <c r="F19">
-        <v>55.80745045</v>
+        <v>55.72102251</v>
       </c>
       <c r="G19">
-        <v>15.17</v>
+        <v>24.86</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>5.17</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>698710</v>
+        <v>637536</v>
       </c>
       <c r="B20">
-        <v>636069</v>
+        <v>637194</v>
       </c>
       <c r="C20">
-        <v>37.51134651</v>
+        <v>37.5843158</v>
       </c>
       <c r="D20">
-        <v>55.80745045</v>
+        <v>55.72102251</v>
       </c>
       <c r="E20">
-        <v>37.50190107</v>
+        <v>37.52335988</v>
       </c>
       <c r="F20">
-        <v>55.81853556</v>
+        <v>55.69883084</v>
       </c>
       <c r="G20">
-        <v>13.52</v>
+        <v>19.44</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>3.52</v>
+        <v>9.439999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>636069</v>
+        <v>637194</v>
       </c>
       <c r="B21">
-        <v>636072</v>
+        <v>634737</v>
       </c>
       <c r="C21">
-        <v>37.50190107</v>
+        <v>37.52335988</v>
       </c>
       <c r="D21">
-        <v>55.81853556</v>
+        <v>55.69883084</v>
       </c>
       <c r="E21">
-        <v>37.49031983</v>
+        <v>37.47336621</v>
       </c>
       <c r="F21">
-        <v>55.82981293</v>
+        <v>55.70788357</v>
       </c>
       <c r="G21">
-        <v>12.31</v>
+        <v>20.52</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.31</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>636072</v>
+        <v>634737</v>
       </c>
       <c r="B22">
-        <v>606139</v>
+        <v>646950</v>
       </c>
       <c r="C22">
-        <v>37.49031983</v>
+        <v>37.47336621</v>
       </c>
       <c r="D22">
-        <v>55.82981293</v>
+        <v>55.70788357</v>
       </c>
       <c r="E22">
-        <v>37.49794064</v>
+        <v>37.43241652</v>
       </c>
       <c r="F22">
-        <v>55.84607379</v>
+        <v>55.736452</v>
       </c>
       <c r="G22">
-        <v>13.92</v>
+        <v>18.74</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>3.92</v>
+        <v>8.740000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>606139</v>
+        <v>646950</v>
       </c>
       <c r="B23">
-        <v>606027</v>
+        <v>634709</v>
       </c>
       <c r="C23">
-        <v>37.49794064</v>
+        <v>37.43241652</v>
       </c>
       <c r="D23">
-        <v>55.84607379</v>
+        <v>55.736452</v>
       </c>
       <c r="E23">
-        <v>37.48596646</v>
+        <v>37.41601912</v>
       </c>
       <c r="F23">
-        <v>55.84977098</v>
+        <v>55.74913108</v>
       </c>
       <c r="G23">
-        <v>12.6</v>
+        <v>15.89</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>2.6</v>
+        <v>5.890000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>606027</v>
+        <v>634709</v>
       </c>
       <c r="B24">
-        <v>636077</v>
+        <v>634757</v>
       </c>
       <c r="C24">
-        <v>37.48596646</v>
+        <v>37.41601912</v>
       </c>
       <c r="D24">
-        <v>55.84977098</v>
+        <v>55.74913108</v>
       </c>
       <c r="E24">
-        <v>37.4995565</v>
+        <v>37.39768592</v>
       </c>
       <c r="F24">
-        <v>55.85307323</v>
+        <v>55.81787401</v>
       </c>
       <c r="G24">
-        <v>12.04</v>
+        <v>21.15</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>2.039999999999999</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>636077</v>
+        <v>634757</v>
       </c>
       <c r="B25">
-        <v>606025</v>
+        <v>699560</v>
       </c>
       <c r="C25">
-        <v>37.4995565</v>
+        <v>37.39768592</v>
       </c>
       <c r="D25">
-        <v>55.85307323</v>
+        <v>55.81787401</v>
       </c>
       <c r="E25">
-        <v>37.50313905</v>
+        <v>37.36459769</v>
       </c>
       <c r="F25">
-        <v>55.86457418</v>
+        <v>55.84561031</v>
       </c>
       <c r="G25">
-        <v>12.84</v>
+        <v>19.05</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>2.84</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>606025</v>
+        <v>699560</v>
       </c>
       <c r="B26">
-        <v>636070</v>
+        <v>644825</v>
       </c>
       <c r="C26">
-        <v>37.50313905</v>
+        <v>37.36459769</v>
       </c>
       <c r="D26">
-        <v>55.86457418</v>
+        <v>55.84561031</v>
       </c>
       <c r="E26">
-        <v>37.49657834</v>
+        <v>37.36328397</v>
       </c>
       <c r="F26">
-        <v>55.86679029</v>
+        <v>55.81668736</v>
       </c>
       <c r="G26">
-        <v>11.36</v>
+        <v>18.19</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>1.359999999999999</v>
+        <v>8.189999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>636070</v>
+        <v>644825</v>
       </c>
       <c r="B27">
-        <v>659661</v>
+        <v>661165</v>
       </c>
       <c r="C27">
-        <v>37.49657834</v>
+        <v>37.36328397</v>
       </c>
       <c r="D27">
-        <v>55.86679029</v>
+        <v>55.81668736</v>
       </c>
       <c r="E27">
-        <v>37.48228755</v>
+        <v>37.44544597</v>
       </c>
       <c r="F27">
-        <v>55.86017264</v>
+        <v>55.84450226</v>
       </c>
       <c r="G27">
-        <v>12.76</v>
+        <v>17.66</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>2.76</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>659661</v>
+        <v>661165</v>
       </c>
       <c r="B28">
-        <v>606125</v>
+        <v>688325</v>
       </c>
       <c r="C28">
-        <v>37.48228755</v>
+        <v>37.44544597</v>
       </c>
       <c r="D28">
-        <v>55.86017264</v>
+        <v>55.84450226</v>
       </c>
       <c r="E28">
-        <v>37.47783783</v>
+        <v>37.29691901</v>
       </c>
       <c r="F28">
-        <v>55.86253327</v>
+        <v>55.83687292</v>
       </c>
       <c r="G28">
-        <v>11.3</v>
+        <v>28.23</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>1.300000000000001</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>606125</v>
+        <v>688325</v>
       </c>
       <c r="B29">
-        <v>698705</v>
+        <v>636512</v>
       </c>
       <c r="C29">
-        <v>37.47783783</v>
+        <v>37.29691901</v>
       </c>
       <c r="D29">
-        <v>55.86253327</v>
+        <v>55.83687292</v>
       </c>
       <c r="E29">
-        <v>37.51536702</v>
+        <v>37.12049808</v>
       </c>
       <c r="F29">
-        <v>55.8566733</v>
+        <v>55.85899014</v>
       </c>
       <c r="G29">
-        <v>14.58</v>
+        <v>33.58</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>4.58</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>698705</v>
+        <v>636512</v>
       </c>
       <c r="B30">
-        <v>606128</v>
+        <v>646947</v>
       </c>
       <c r="C30">
-        <v>37.51536702</v>
+        <v>37.12049808</v>
       </c>
       <c r="D30">
-        <v>55.8566733</v>
+        <v>55.85899014</v>
       </c>
       <c r="E30">
-        <v>37.53631925</v>
+        <v>37.09242893</v>
       </c>
       <c r="F30">
-        <v>55.84171243</v>
+        <v>55.81915287</v>
       </c>
       <c r="G30">
-        <v>14.58</v>
+        <v>28.74</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>4.58</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>606128</v>
+        <v>646947</v>
       </c>
       <c r="B31">
-        <v>676366</v>
+        <v>646945</v>
       </c>
       <c r="C31">
-        <v>37.53631925</v>
+        <v>37.09242893</v>
       </c>
       <c r="D31">
-        <v>55.84171243</v>
+        <v>55.81915287</v>
       </c>
       <c r="E31">
-        <v>37.53758935</v>
+        <v>37.25589924</v>
       </c>
       <c r="F31">
-        <v>55.83871237</v>
+        <v>55.67401138</v>
       </c>
       <c r="G31">
-        <v>10.73</v>
+        <v>41.66</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>0.7300000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>676366</v>
-      </c>
-      <c r="B32">
-        <v>669434</v>
-      </c>
-      <c r="C32">
-        <v>37.53758935</v>
-      </c>
-      <c r="D32">
-        <v>55.83871237</v>
-      </c>
-      <c r="E32">
-        <v>37.54552965</v>
-      </c>
-      <c r="F32">
-        <v>55.84042043</v>
-      </c>
-      <c r="G32">
-        <v>11.04</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>1.039999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>669434</v>
-      </c>
-      <c r="B33">
-        <v>606074</v>
-      </c>
-      <c r="C33">
-        <v>37.54552965</v>
-      </c>
-      <c r="D33">
-        <v>55.84042043</v>
-      </c>
-      <c r="E33">
-        <v>37.51595435</v>
-      </c>
-      <c r="F33">
-        <v>55.8259723</v>
-      </c>
-      <c r="G33">
-        <v>13.7</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>3.699999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>606074</v>
-      </c>
-      <c r="B34">
-        <v>682176</v>
-      </c>
-      <c r="C34">
-        <v>37.51595435</v>
-      </c>
-      <c r="D34">
-        <v>55.8259723</v>
-      </c>
-      <c r="E34">
-        <v>37.51595435</v>
-      </c>
-      <c r="F34">
-        <v>55.8259723</v>
-      </c>
-      <c r="G34">
-        <v>11.03</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>1.029999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>682176</v>
-      </c>
-      <c r="B35">
-        <v>634721</v>
-      </c>
-      <c r="C35">
-        <v>37.51595435</v>
-      </c>
-      <c r="D35">
-        <v>55.8259723</v>
-      </c>
-      <c r="E35">
-        <v>37.51124578</v>
-      </c>
-      <c r="F35">
-        <v>55.81863169</v>
-      </c>
-      <c r="G35">
-        <v>12.39</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>2.390000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>634721</v>
-      </c>
-      <c r="B36">
-        <v>669431</v>
-      </c>
-      <c r="C36">
-        <v>37.51124578</v>
-      </c>
-      <c r="D36">
-        <v>55.81863169</v>
-      </c>
-      <c r="E36">
-        <v>37.53009578</v>
-      </c>
-      <c r="F36">
-        <v>55.81722145</v>
-      </c>
-      <c r="G36">
-        <v>13.77</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>669431</v>
-      </c>
-      <c r="B37">
-        <v>669428</v>
-      </c>
-      <c r="C37">
-        <v>37.53009578</v>
-      </c>
-      <c r="D37">
-        <v>55.81722145</v>
-      </c>
-      <c r="E37">
-        <v>37.493898</v>
-      </c>
-      <c r="F37">
-        <v>55.809614</v>
-      </c>
-      <c r="G37">
-        <v>16.23</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>669428</v>
-      </c>
-      <c r="B38">
-        <v>649851</v>
-      </c>
-      <c r="C38">
-        <v>37.493898</v>
-      </c>
-      <c r="D38">
-        <v>55.809614</v>
-      </c>
-      <c r="E38">
-        <v>37.44679928</v>
-      </c>
-      <c r="F38">
-        <v>55.82734281</v>
-      </c>
-      <c r="G38">
-        <v>17.49</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>7.490000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>649851</v>
-      </c>
-      <c r="B39">
-        <v>638722</v>
-      </c>
-      <c r="C39">
-        <v>37.44679928</v>
-      </c>
-      <c r="D39">
-        <v>55.82734281</v>
-      </c>
-      <c r="E39">
-        <v>37.45387679</v>
-      </c>
-      <c r="F39">
-        <v>55.83165238</v>
-      </c>
-      <c r="G39">
-        <v>11.57</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>638722</v>
-      </c>
-      <c r="B40">
-        <v>646864</v>
-      </c>
-      <c r="C40">
-        <v>37.45387679</v>
-      </c>
-      <c r="D40">
-        <v>55.83165238</v>
-      </c>
-      <c r="E40">
-        <v>37.43292499</v>
-      </c>
-      <c r="F40">
-        <v>55.82545437</v>
-      </c>
-      <c r="G40">
-        <v>13.96</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>3.960000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>646864</v>
-      </c>
-      <c r="B41">
-        <v>649811</v>
-      </c>
-      <c r="C41">
-        <v>37.43292499</v>
-      </c>
-      <c r="D41">
-        <v>55.82545437</v>
-      </c>
-      <c r="E41">
-        <v>37.4258996</v>
-      </c>
-      <c r="F41">
-        <v>55.8277107</v>
-      </c>
-      <c r="G41">
-        <v>11.64</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>1.640000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>649811</v>
-      </c>
-      <c r="B42">
-        <v>688304</v>
-      </c>
-      <c r="C42">
-        <v>37.4258996</v>
-      </c>
-      <c r="D42">
-        <v>55.8277107</v>
-      </c>
-      <c r="E42">
-        <v>37.45914988</v>
-      </c>
-      <c r="F42">
-        <v>55.81577178</v>
-      </c>
-      <c r="G42">
-        <v>14.64</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>4.640000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>688304</v>
-      </c>
-      <c r="B43">
-        <v>644438</v>
-      </c>
-      <c r="C43">
-        <v>37.45914988</v>
-      </c>
-      <c r="D43">
-        <v>55.81577178</v>
-      </c>
-      <c r="E43">
-        <v>37.46946833</v>
-      </c>
-      <c r="F43">
-        <v>55.81398051</v>
-      </c>
-      <c r="G43">
-        <v>10.94</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>0.9399999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>644438</v>
-      </c>
-      <c r="B44">
-        <v>636409</v>
-      </c>
-      <c r="C44">
-        <v>37.46946833</v>
-      </c>
-      <c r="D44">
-        <v>55.81398051</v>
-      </c>
-      <c r="E44">
-        <v>37.46179957</v>
-      </c>
-      <c r="F44">
-        <v>55.79630425</v>
-      </c>
-      <c r="G44">
-        <v>16.19</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>6.190000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>636409</v>
-      </c>
-      <c r="B45">
-        <v>638461</v>
-      </c>
-      <c r="C45">
-        <v>37.46179957</v>
-      </c>
-      <c r="D45">
-        <v>55.79630425</v>
-      </c>
-      <c r="E45">
-        <v>37.40826715</v>
-      </c>
-      <c r="F45">
-        <v>55.77098114</v>
-      </c>
-      <c r="G45">
-        <v>20.6</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>638461</v>
-      </c>
-      <c r="B46">
-        <v>667835</v>
-      </c>
-      <c r="C46">
-        <v>37.40826715</v>
-      </c>
-      <c r="D46">
-        <v>55.77098114</v>
-      </c>
-      <c r="E46">
-        <v>37.39478659</v>
-      </c>
-      <c r="F46">
-        <v>55.7416813</v>
-      </c>
-      <c r="G46">
-        <v>15.62</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>5.620000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>667835</v>
-      </c>
-      <c r="B47">
-        <v>634709</v>
-      </c>
-      <c r="C47">
-        <v>37.39478659</v>
-      </c>
-      <c r="D47">
-        <v>55.7416813</v>
-      </c>
-      <c r="E47">
-        <v>37.41601912</v>
-      </c>
-      <c r="F47">
-        <v>55.74913108</v>
-      </c>
-      <c r="G47">
-        <v>11.6</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>634709</v>
-      </c>
-      <c r="B48">
-        <v>646950</v>
-      </c>
-      <c r="C48">
-        <v>37.41601912</v>
-      </c>
-      <c r="D48">
-        <v>55.74913108</v>
-      </c>
-      <c r="E48">
-        <v>37.43241652</v>
-      </c>
-      <c r="F48">
-        <v>55.736452</v>
-      </c>
-      <c r="G48">
-        <v>13.91</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>646950</v>
-      </c>
-      <c r="B49">
-        <v>646712</v>
-      </c>
-      <c r="C49">
-        <v>37.43241652</v>
-      </c>
-      <c r="D49">
-        <v>55.736452</v>
-      </c>
-      <c r="E49">
-        <v>37.41094749</v>
-      </c>
-      <c r="F49">
-        <v>55.72350139</v>
-      </c>
-      <c r="G49">
-        <v>15.12</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>5.120000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>646712</v>
-      </c>
-      <c r="B50">
-        <v>634737</v>
-      </c>
-      <c r="C50">
-        <v>37.41094749</v>
-      </c>
-      <c r="D50">
-        <v>55.72350139</v>
-      </c>
-      <c r="E50">
-        <v>37.47336621</v>
-      </c>
-      <c r="F50">
-        <v>55.70788357</v>
-      </c>
-      <c r="G50">
-        <v>18.23</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>634737</v>
-      </c>
-      <c r="B51">
-        <v>676997</v>
-      </c>
-      <c r="C51">
-        <v>37.47336621</v>
-      </c>
-      <c r="D51">
-        <v>55.70788357</v>
-      </c>
-      <c r="E51">
-        <v>37.50419893</v>
-      </c>
-      <c r="F51">
-        <v>55.71585014</v>
-      </c>
-      <c r="G51">
-        <v>19.04</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>9.039999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>676997</v>
-      </c>
-      <c r="B52">
-        <v>629807</v>
-      </c>
-      <c r="C52">
-        <v>37.50419893</v>
-      </c>
-      <c r="D52">
-        <v>55.71585014</v>
-      </c>
-      <c r="E52">
-        <v>37.5034058</v>
-      </c>
-      <c r="F52">
-        <v>55.74067927</v>
-      </c>
-      <c r="G52">
-        <v>14.07</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>629807</v>
-      </c>
-      <c r="B53">
-        <v>634827</v>
-      </c>
-      <c r="C53">
-        <v>37.5034058</v>
-      </c>
-      <c r="D53">
-        <v>55.74067927</v>
-      </c>
-      <c r="E53">
-        <v>37.50463689</v>
-      </c>
-      <c r="F53">
-        <v>55.73069277</v>
-      </c>
-      <c r="G53">
-        <v>11.66</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53">
-        <v>1.66</v>
+        <v>31.66</v>
       </c>
     </row>
   </sheetData>
